--- a/How to Find Outliers.xlsx
+++ b/How to Find Outliers.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Outliers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
